--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vcam1-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vcam1-Itgb2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.91119833333333</v>
+        <v>22.95531766666667</v>
       </c>
       <c r="H2">
-        <v>71.73359499999999</v>
+        <v>68.865953</v>
       </c>
       <c r="I2">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="J2">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2827783333333334</v>
+        <v>0.1825283333333333</v>
       </c>
       <c r="N2">
-        <v>0.8483350000000001</v>
+        <v>0.547585</v>
       </c>
       <c r="O2">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="P2">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="Q2">
-        <v>6.761568812702778</v>
+        <v>4.189995874833889</v>
       </c>
       <c r="R2">
-        <v>60.854119314325</v>
+        <v>37.709962873505</v>
       </c>
       <c r="S2">
-        <v>0.0002003838522311937</v>
+        <v>0.0001768750959114455</v>
       </c>
       <c r="T2">
-        <v>0.0002003838522311938</v>
+        <v>0.0001768750959114456</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.91119833333333</v>
+        <v>22.95531766666667</v>
       </c>
       <c r="H3">
-        <v>71.73359499999999</v>
+        <v>68.865953</v>
       </c>
       <c r="I3">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="J3">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.093691</v>
       </c>
       <c r="O3">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="P3">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="Q3">
-        <v>0.7467546943494443</v>
+        <v>0.7169022225025556</v>
       </c>
       <c r="R3">
-        <v>6.720792249144999</v>
+        <v>6.452120002523</v>
       </c>
       <c r="S3">
-        <v>2.213060111794606E-05</v>
+        <v>3.026307260249869E-05</v>
       </c>
       <c r="T3">
-        <v>2.213060111794606E-05</v>
+        <v>3.026307260249869E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.91119833333333</v>
+        <v>22.95531766666667</v>
       </c>
       <c r="H4">
-        <v>71.73359499999999</v>
+        <v>68.865953</v>
       </c>
       <c r="I4">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="J4">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>133.2267966666667</v>
+        <v>103.239782</v>
       </c>
       <c r="N4">
-        <v>399.68039</v>
+        <v>309.719346</v>
       </c>
       <c r="O4">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="P4">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="Q4">
-        <v>3185.612358411339</v>
+        <v>2369.901991647415</v>
       </c>
       <c r="R4">
-        <v>28670.51122570205</v>
+        <v>21329.11792482674</v>
       </c>
       <c r="S4">
-        <v>0.09440786506446848</v>
+        <v>0.1000422565069901</v>
       </c>
       <c r="T4">
-        <v>0.09440786506446849</v>
+        <v>0.1000422565069901</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.91119833333333</v>
+        <v>22.95531766666667</v>
       </c>
       <c r="H5">
-        <v>71.73359499999999</v>
+        <v>68.865953</v>
       </c>
       <c r="I5">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="J5">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.05352499999999999</v>
+        <v>0.04852733333333333</v>
       </c>
       <c r="N5">
-        <v>0.160575</v>
+        <v>0.145582</v>
       </c>
       <c r="O5">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404138</v>
       </c>
       <c r="P5">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404139</v>
       </c>
       <c r="Q5">
-        <v>1.279846890791666</v>
+        <v>1.113960352182889</v>
       </c>
       <c r="R5">
-        <v>11.518622017125</v>
+        <v>10.025643169646</v>
       </c>
       <c r="S5">
-        <v>3.792916368182843E-05</v>
+        <v>4.702435277259251E-05</v>
       </c>
       <c r="T5">
-        <v>3.792916368182844E-05</v>
+        <v>4.702435277259251E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.91119833333333</v>
+        <v>22.95531766666667</v>
       </c>
       <c r="H6">
-        <v>71.73359499999999</v>
+        <v>68.865953</v>
       </c>
       <c r="I6">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="J6">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>145.729604</v>
+        <v>73.99751433333334</v>
       </c>
       <c r="N6">
-        <v>437.188812</v>
+        <v>221.992543</v>
       </c>
       <c r="O6">
-        <v>0.5217225811594521</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="P6">
-        <v>0.5217225811594522</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="Q6">
-        <v>3484.569464282126</v>
+        <v>1698.636448065387</v>
       </c>
       <c r="R6">
-        <v>31361.12517853914</v>
+        <v>15287.72803258848</v>
       </c>
       <c r="S6">
-        <v>0.1032676693770021</v>
+        <v>0.07170567552937117</v>
       </c>
       <c r="T6">
-        <v>0.1032676693770022</v>
+        <v>0.07170567552937117</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>186.642341</v>
       </c>
       <c r="I7">
-        <v>0.5150060346614912</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="J7">
-        <v>0.5150060346614913</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,28 +868,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.2827783333333334</v>
+        <v>0.1825283333333333</v>
       </c>
       <c r="N7">
-        <v>0.8483350000000001</v>
+        <v>0.547585</v>
       </c>
       <c r="O7">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="P7">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="Q7">
-        <v>17.59280337247056</v>
+        <v>11.35583847738722</v>
       </c>
       <c r="R7">
-        <v>158.335230352235</v>
+        <v>102.202546296485</v>
       </c>
       <c r="S7">
-        <v>0.0005213751141153328</v>
+        <v>0.0004793715984081672</v>
       </c>
       <c r="T7">
-        <v>0.0005213751141153329</v>
+        <v>0.0004793715984081673</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>186.642341</v>
       </c>
       <c r="I8">
-        <v>0.5150060346614912</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="J8">
-        <v>0.5150060346614913</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,10 +936,10 @@
         <v>0.093691</v>
       </c>
       <c r="O8">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="P8">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="Q8">
         <v>1.942967507847889</v>
@@ -948,10 +948,10 @@
         <v>17.486707570631</v>
       </c>
       <c r="S8">
-        <v>5.758121003681286E-05</v>
+        <v>8.201978583500207E-05</v>
       </c>
       <c r="T8">
-        <v>5.758121003681288E-05</v>
+        <v>8.201978583500207E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>186.642341</v>
       </c>
       <c r="I9">
-        <v>0.5150060346614912</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="J9">
-        <v>0.5150060346614913</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>133.2267966666667</v>
+        <v>103.239782</v>
       </c>
       <c r="N9">
-        <v>399.68039</v>
+        <v>309.719346</v>
       </c>
       <c r="O9">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="P9">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="Q9">
-        <v>8288.587071265887</v>
+        <v>6422.971532269887</v>
       </c>
       <c r="R9">
-        <v>74597.28364139298</v>
+        <v>57806.74379042898</v>
       </c>
       <c r="S9">
-        <v>0.2456381134173536</v>
+        <v>0.2711371895686555</v>
       </c>
       <c r="T9">
-        <v>0.2456381134173537</v>
+        <v>0.2711371895686555</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>186.642341</v>
       </c>
       <c r="I10">
-        <v>0.5150060346614912</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="J10">
-        <v>0.5150060346614913</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.05352499999999999</v>
+        <v>0.04852733333333333</v>
       </c>
       <c r="N10">
-        <v>0.160575</v>
+        <v>0.145582</v>
       </c>
       <c r="O10">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404138</v>
       </c>
       <c r="P10">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404139</v>
       </c>
       <c r="Q10">
-        <v>3.330010434008333</v>
+        <v>3.019085031940222</v>
       </c>
       <c r="R10">
-        <v>29.97009390607499</v>
+        <v>27.171765287462</v>
       </c>
       <c r="S10">
-        <v>9.868720369791361E-05</v>
+        <v>0.0001274466540161944</v>
       </c>
       <c r="T10">
-        <v>9.868720369791364E-05</v>
+        <v>0.0001274466540161944</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>186.642341</v>
       </c>
       <c r="I11">
-        <v>0.5150060346614912</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="J11">
-        <v>0.5150060346614913</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>145.729604</v>
+        <v>73.99751433333334</v>
       </c>
       <c r="N11">
-        <v>437.188812</v>
+        <v>221.992543</v>
       </c>
       <c r="O11">
-        <v>0.5217225811594521</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="P11">
-        <v>0.5217225811594522</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="Q11">
-        <v>9066.43814785432</v>
+        <v>4603.689767784796</v>
       </c>
       <c r="R11">
-        <v>81597.94333068888</v>
+        <v>41433.20791006316</v>
       </c>
       <c r="S11">
-        <v>0.2686902777162875</v>
+        <v>0.1943386326736558</v>
       </c>
       <c r="T11">
-        <v>0.2686902777162876</v>
+        <v>0.1943386326736558</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.608769666666667</v>
+        <v>7.783044333333334</v>
       </c>
       <c r="H12">
-        <v>4.826309</v>
+        <v>23.349133</v>
       </c>
       <c r="I12">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698088</v>
       </c>
       <c r="J12">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698089</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,28 +1178,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.2827783333333334</v>
+        <v>0.1825283333333333</v>
       </c>
       <c r="N12">
-        <v>0.8483350000000001</v>
+        <v>0.547585</v>
       </c>
       <c r="O12">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="P12">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="Q12">
-        <v>0.4549252050572222</v>
+        <v>1.420626110422778</v>
       </c>
       <c r="R12">
-        <v>4.094326845515001</v>
+        <v>12.785634993805</v>
       </c>
       <c r="S12">
-        <v>1.34820287409E-05</v>
+        <v>5.996983936059228E-05</v>
       </c>
       <c r="T12">
-        <v>1.34820287409E-05</v>
+        <v>5.99698393605923E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.608769666666667</v>
+        <v>7.783044333333334</v>
       </c>
       <c r="H13">
-        <v>4.826309</v>
+        <v>23.349133</v>
       </c>
       <c r="I13">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698088</v>
       </c>
       <c r="J13">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698089</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.093691</v>
       </c>
       <c r="O13">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="P13">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="Q13">
-        <v>0.05024241294655556</v>
+        <v>0.2430670688781111</v>
       </c>
       <c r="R13">
-        <v>0.452181716519</v>
+        <v>2.187603619903</v>
       </c>
       <c r="S13">
-        <v>1.488969280724786E-06</v>
+        <v>1.026075261289709E-05</v>
       </c>
       <c r="T13">
-        <v>1.488969280724787E-06</v>
+        <v>1.026075261289709E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.608769666666667</v>
+        <v>7.783044333333334</v>
       </c>
       <c r="H14">
-        <v>4.826309</v>
+        <v>23.349133</v>
       </c>
       <c r="I14">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698088</v>
       </c>
       <c r="J14">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698089</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>133.2267966666667</v>
+        <v>103.239782</v>
       </c>
       <c r="N14">
-        <v>399.68039</v>
+        <v>309.719346</v>
       </c>
       <c r="O14">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="P14">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="Q14">
-        <v>214.3312292645011</v>
+        <v>803.5198002696686</v>
       </c>
       <c r="R14">
-        <v>1928.98106338051</v>
+        <v>7231.678202427018</v>
       </c>
       <c r="S14">
-        <v>0.006351856878655389</v>
+        <v>0.03391951829668034</v>
       </c>
       <c r="T14">
-        <v>0.006351856878655391</v>
+        <v>0.03391951829668034</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.608769666666667</v>
+        <v>7.783044333333334</v>
       </c>
       <c r="H15">
-        <v>4.826309</v>
+        <v>23.349133</v>
       </c>
       <c r="I15">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698088</v>
       </c>
       <c r="J15">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698089</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.05352499999999999</v>
+        <v>0.04852733333333333</v>
       </c>
       <c r="N15">
-        <v>0.160575</v>
+        <v>0.145582</v>
       </c>
       <c r="O15">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404138</v>
       </c>
       <c r="P15">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404139</v>
       </c>
       <c r="Q15">
-        <v>0.08610939640833332</v>
+        <v>0.3776903867117778</v>
       </c>
       <c r="R15">
-        <v>0.7749845676749999</v>
+        <v>3.399213480406</v>
       </c>
       <c r="S15">
-        <v>2.551912587680594E-06</v>
+        <v>1.594369669328734E-05</v>
       </c>
       <c r="T15">
-        <v>2.551912587680595E-06</v>
+        <v>1.594369669328734E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.608769666666667</v>
+        <v>7.783044333333334</v>
       </c>
       <c r="H16">
-        <v>4.826309</v>
+        <v>23.349133</v>
       </c>
       <c r="I16">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698088</v>
       </c>
       <c r="J16">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698089</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>145.729604</v>
+        <v>73.99751433333334</v>
       </c>
       <c r="N16">
-        <v>437.188812</v>
+        <v>221.992543</v>
       </c>
       <c r="O16">
-        <v>0.5217225811594521</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="P16">
-        <v>0.5217225811594522</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="Q16">
-        <v>234.4453664505453</v>
+        <v>575.9259346128022</v>
       </c>
       <c r="R16">
-        <v>2110.008298054908</v>
+        <v>5183.333411515219</v>
       </c>
       <c r="S16">
-        <v>0.006947953495475165</v>
+        <v>0.02431194635163377</v>
       </c>
       <c r="T16">
-        <v>0.006947953495475168</v>
+        <v>0.02431194635163377</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>26.045992</v>
+        <v>30.44016466666666</v>
       </c>
       <c r="H17">
-        <v>78.13797599999999</v>
+        <v>91.320494</v>
       </c>
       <c r="I17">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="J17">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1488,28 +1488,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.2827783333333334</v>
+        <v>0.1825283333333333</v>
       </c>
       <c r="N17">
-        <v>0.8483350000000001</v>
+        <v>0.547585</v>
       </c>
       <c r="O17">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="P17">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="Q17">
-        <v>7.365242207773333</v>
+        <v>5.556192522998888</v>
       </c>
       <c r="R17">
-        <v>66.28717986996</v>
+        <v>50.00573270699</v>
       </c>
       <c r="S17">
-        <v>0.000218274138308955</v>
+        <v>0.0002345472680081925</v>
       </c>
       <c r="T17">
-        <v>0.000218274138308955</v>
+        <v>0.0002345472680081925</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>26.045992</v>
+        <v>30.44016466666666</v>
       </c>
       <c r="H18">
-        <v>78.13797599999999</v>
+        <v>91.320494</v>
       </c>
       <c r="I18">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="J18">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.093691</v>
       </c>
       <c r="O18">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="P18">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="Q18">
-        <v>0.8134250121573332</v>
+        <v>0.9506564892615554</v>
       </c>
       <c r="R18">
-        <v>7.320825109415999</v>
+        <v>8.555908403354</v>
       </c>
       <c r="S18">
-        <v>2.410642292526455E-05</v>
+        <v>4.013069767607871E-05</v>
       </c>
       <c r="T18">
-        <v>2.410642292526455E-05</v>
+        <v>4.013069767607871E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>26.045992</v>
+        <v>30.44016466666666</v>
       </c>
       <c r="H19">
-        <v>78.13797599999999</v>
+        <v>91.320494</v>
       </c>
       <c r="I19">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="J19">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>133.2267966666667</v>
+        <v>103.239782</v>
       </c>
       <c r="N19">
-        <v>399.68039</v>
+        <v>309.719346</v>
       </c>
       <c r="O19">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="P19">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="Q19">
-        <v>3470.024080165626</v>
+        <v>3142.635964230769</v>
       </c>
       <c r="R19">
-        <v>31230.21672149064</v>
+        <v>28283.72367807692</v>
       </c>
       <c r="S19">
-        <v>0.1028366066780659</v>
+        <v>0.1326621920863137</v>
       </c>
       <c r="T19">
-        <v>0.1028366066780659</v>
+        <v>0.1326621920863137</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>26.045992</v>
+        <v>30.44016466666666</v>
       </c>
       <c r="H20">
-        <v>78.13797599999999</v>
+        <v>91.320494</v>
       </c>
       <c r="I20">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="J20">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.05352499999999999</v>
+        <v>0.04852733333333333</v>
       </c>
       <c r="N20">
-        <v>0.160575</v>
+        <v>0.145582</v>
       </c>
       <c r="O20">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404138</v>
       </c>
       <c r="P20">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404139</v>
       </c>
       <c r="Q20">
-        <v>1.3941117218</v>
+        <v>1.477180017500889</v>
       </c>
       <c r="R20">
-        <v>12.5470054962</v>
+        <v>13.294620157508</v>
       </c>
       <c r="S20">
-        <v>4.131548239664807E-05</v>
+        <v>6.235718723334035E-05</v>
       </c>
       <c r="T20">
-        <v>4.131548239664808E-05</v>
+        <v>6.235718723334036E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>26.045992</v>
+        <v>30.44016466666666</v>
       </c>
       <c r="H21">
-        <v>78.13797599999999</v>
+        <v>91.320494</v>
       </c>
       <c r="I21">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="J21">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>145.729604</v>
+        <v>73.99751433333334</v>
       </c>
       <c r="N21">
-        <v>437.188812</v>
+        <v>221.992543</v>
       </c>
       <c r="O21">
-        <v>0.5217225811594521</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="P21">
-        <v>0.5217225811594522</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="Q21">
-        <v>3795.672099947168</v>
+        <v>2252.496521230694</v>
       </c>
       <c r="R21">
-        <v>34161.04889952451</v>
+        <v>20272.46869107624</v>
       </c>
       <c r="S21">
-        <v>0.1124874150160204</v>
+        <v>0.09508614092577627</v>
       </c>
       <c r="T21">
-        <v>0.1124874150160205</v>
+        <v>0.09508614092577627</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>7.022615000000001</v>
+        <v>10.06688366666667</v>
       </c>
       <c r="H22">
-        <v>21.067845</v>
+        <v>30.200651</v>
       </c>
       <c r="I22">
-        <v>0.05813293625755009</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="J22">
-        <v>0.0581329362575501</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1798,28 +1798,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.2827783333333334</v>
+        <v>0.1825283333333333</v>
       </c>
       <c r="N22">
-        <v>0.8483350000000001</v>
+        <v>0.547585</v>
       </c>
       <c r="O22">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="P22">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="Q22">
-        <v>1.985843365341667</v>
+        <v>1.837491497537222</v>
       </c>
       <c r="R22">
-        <v>17.872590288075</v>
+        <v>16.537423477835</v>
       </c>
       <c r="S22">
-        <v>5.885186626028843E-05</v>
+        <v>7.756725652534125E-05</v>
       </c>
       <c r="T22">
-        <v>5.885186626028843E-05</v>
+        <v>7.756725652534126E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>7.022615000000001</v>
+        <v>10.06688366666667</v>
       </c>
       <c r="H23">
-        <v>21.067845</v>
+        <v>30.200651</v>
       </c>
       <c r="I23">
-        <v>0.05813293625755009</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="J23">
-        <v>0.0581329362575501</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1866,22 +1866,22 @@
         <v>0.093691</v>
       </c>
       <c r="O23">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="P23">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="Q23">
-        <v>0.2193186073216667</v>
+        <v>0.3143921325378889</v>
       </c>
       <c r="R23">
-        <v>1.973867465895</v>
+        <v>2.829529192841</v>
       </c>
       <c r="S23">
-        <v>6.499661338731376E-06</v>
+        <v>1.327164518954272E-05</v>
       </c>
       <c r="T23">
-        <v>6.499661338731378E-06</v>
+        <v>1.327164518954272E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>7.022615000000001</v>
+        <v>10.06688366666667</v>
       </c>
       <c r="H24">
-        <v>21.067845</v>
+        <v>30.200651</v>
       </c>
       <c r="I24">
-        <v>0.05813293625755009</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="J24">
-        <v>0.0581329362575501</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>133.2267966666667</v>
+        <v>103.239782</v>
       </c>
       <c r="N24">
-        <v>399.68039</v>
+        <v>309.719346</v>
       </c>
       <c r="O24">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="P24">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="Q24">
-        <v>935.6005006732835</v>
+        <v>1039.302875166027</v>
       </c>
       <c r="R24">
-        <v>8420.404506059551</v>
+        <v>9353.725876494245</v>
       </c>
       <c r="S24">
-        <v>0.02772717954480237</v>
+        <v>0.04387278680395359</v>
       </c>
       <c r="T24">
-        <v>0.02772717954480237</v>
+        <v>0.04387278680395359</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>7.022615000000001</v>
+        <v>10.06688366666667</v>
       </c>
       <c r="H25">
-        <v>21.067845</v>
+        <v>30.200651</v>
       </c>
       <c r="I25">
-        <v>0.05813293625755009</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="J25">
-        <v>0.0581329362575501</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.05352499999999999</v>
+        <v>0.04852733333333333</v>
       </c>
       <c r="N25">
-        <v>0.160575</v>
+        <v>0.145582</v>
       </c>
       <c r="O25">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404138</v>
       </c>
       <c r="P25">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404139</v>
       </c>
       <c r="Q25">
-        <v>0.375885467875</v>
+        <v>0.4885190193202222</v>
       </c>
       <c r="R25">
-        <v>3.382969210875</v>
+        <v>4.396671173882</v>
       </c>
       <c r="S25">
-        <v>1.113963048176229E-05</v>
+        <v>2.062217982499928E-05</v>
       </c>
       <c r="T25">
-        <v>1.113963048176229E-05</v>
+        <v>2.062217982499928E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>7.022615000000001</v>
+        <v>10.06688366666667</v>
       </c>
       <c r="H26">
-        <v>21.067845</v>
+        <v>30.200651</v>
       </c>
       <c r="I26">
-        <v>0.05813293625755009</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="J26">
-        <v>0.0581329362575501</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>145.729604</v>
+        <v>73.99751433333334</v>
       </c>
       <c r="N26">
-        <v>437.188812</v>
+        <v>221.992543</v>
       </c>
       <c r="O26">
-        <v>0.5217225811594521</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="P26">
-        <v>0.5217225811594522</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="Q26">
-        <v>1023.40290299446</v>
+        <v>744.9243684161661</v>
       </c>
       <c r="R26">
-        <v>9210.626126950141</v>
+        <v>6704.319315745493</v>
       </c>
       <c r="S26">
-        <v>0.03032926555466693</v>
+        <v>0.03144599017429961</v>
       </c>
       <c r="T26">
-        <v>0.03032926555466695</v>
+        <v>0.03144599017429961</v>
       </c>
     </row>
   </sheetData>
